--- a/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
+++ b/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="841" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="841" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="库存模块功能导航" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="253">
   <si>
     <t>级别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,10 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:正常 2:停用 3:预警 4:删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>期初数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -654,10 +650,6 @@
   </si>
   <si>
     <t>品项名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品项类别编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -809,10 +801,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原料即原料类别,商品即所属厨房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>账面数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -852,10 +840,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>盘点状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -864,22 +848,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:盘点中 2:完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结束日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -893,10 +865,6 @@
   </si>
   <si>
     <t>所属类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属类别编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -927,83 +895,156 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>说明:
+    <t>月结基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月结月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商(调出仓)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据编号(盘点单号)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品项编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单明细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单明细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.商品 2:原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品项数据编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:正常 2:停用 3:预警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">说明:
+一.品项类别属性只有两种:1.商品 2.原料, 商品属性一个餐厅必须有且唯一, 由系统管理, 原料科由用户管理.
+二.原料资料状态由系统管理.
+三.删除原料资料时,没有历史数据物理删除相关信息,删除后不可恢复,否则不处理.
+四.删除商品资料,由菜品库存属性决定, 当用户确定后, 将删除商品基础资料, 历史信息保留,但显示为已删除品项.
+五.总数量,是汇总各部门库存分布情况后的结果.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品项编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:盘点中 2:完成 3:审核通过 4:冲红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">说明:
 一.盘点流程
     1.新增一个盘点任务.此时将锁定现有库存,期间可以继续进行出入库操作,但入库日期只能大于盘点开始日期,待盘点任务完全后,先将原有库存解锁;
     2.盘点货品实际库存量;
     3.填写(或修改)盘点单,录入盘点后实际货品信息;
-    4.审核通过后将自动生成相关信息,不能再修改删除, 未审核可取消盘点.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月结基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐厅编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月结月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明:
-一.品项大类只有两种:1.商品2.原料,商品由系统管理,原料可由用户管理.
-二.原料资料状态3(预警)和4(删除)由系统管理,.
-三.删除品项时,没有历史数据允许删除相关信,删除后不可恢复,否则不处理.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始货单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商(调出仓)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据编号(盘点单号)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经办人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品项编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据编号</t>
+    4.审核通过后将自动生成相关信息,不能再修改删除, 未审核可取消盘点.
+二.货品类型固定分为1(商品)2(原料),当类型为商品时,当次盘点任务只能盘点商品库存信息; 当类型为原料时,当次盘点任务只能盘点原料信息,如果指定某个原料类别则只能盘点该类别下的原料.
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1011,7 +1052,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,6 +1103,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1228,7 +1277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1350,14 +1399,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1401,6 +1462,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1411,9 +1475,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1442,7 +1503,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1453,7 +1514,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="6457950" y="533400"/>
-          <a:ext cx="295275" cy="514350"/>
+          <a:ext cx="295275" cy="971550"/>
           <a:chOff x="4857750" y="314325"/>
           <a:chExt cx="295275" cy="514350"/>
         </a:xfrm>
@@ -1592,7 +1653,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1603,7 +1664,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="6457950" y="533400"/>
-          <a:ext cx="266700" cy="514350"/>
+          <a:ext cx="266700" cy="742950"/>
           <a:chOff x="4857750" y="314325"/>
           <a:chExt cx="295275" cy="514350"/>
         </a:xfrm>
@@ -2342,7 +2403,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2353,7 +2414,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="6457950" y="533400"/>
-          <a:ext cx="266700" cy="514350"/>
+          <a:ext cx="266700" cy="742950"/>
           <a:chOff x="4857750" y="314325"/>
           <a:chExt cx="295275" cy="514350"/>
         </a:xfrm>
@@ -2925,19 +2986,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="E1" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="A1" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -2949,10 +3010,10 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="47"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="27"/>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
@@ -2965,33 +3026,33 @@
       <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="J3" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -3000,14 +3061,14 @@
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3016,12 +3077,12 @@
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="55"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -3029,29 +3090,29 @@
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="55"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E8" s="51"/>
+      <c r="E8" s="55"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="51"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="13"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -3059,7 +3120,7 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="51"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -3067,7 +3128,7 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="51"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="13"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -3075,7 +3136,7 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="51"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="13"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -3083,7 +3144,7 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="52"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="25"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -3125,23 +3186,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="E1" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
+      <c r="A1" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3153,22 +3214,22 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
+      <c r="E2" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="51"/>
+      <c r="G2" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -3177,45 +3238,45 @@
       <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>135</v>
-      </c>
       <c r="N3" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="8"/>
@@ -3228,14 +3289,14 @@
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="8"/>
@@ -3248,15 +3309,15 @@
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="51"/>
+        <v>115</v>
+      </c>
+      <c r="E6" s="55"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -3268,15 +3329,15 @@
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="51"/>
+        <v>116</v>
+      </c>
+      <c r="E7" s="55"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -3288,15 +3349,15 @@
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="51"/>
+        <v>121</v>
+      </c>
+      <c r="E8" s="55"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -3308,15 +3369,15 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="51"/>
+        <v>122</v>
+      </c>
+      <c r="E9" s="55"/>
       <c r="F9" s="13"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -3329,15 +3390,15 @@
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="51"/>
+        <v>123</v>
+      </c>
+      <c r="E10" s="55"/>
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -3349,7 +3410,7 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="51"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="13"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -3361,7 +3422,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="51"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="13"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -3373,7 +3434,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="52"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="25"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -3407,10 +3468,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:J18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3422,23 +3483,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="E1" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
+      <c r="A1" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3450,10 +3511,10 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="46"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="31"/>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
@@ -3466,33 +3527,33 @@
       <c r="B3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="24" t="s">
         <v>88</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="24" t="s">
-        <v>89</v>
       </c>
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
@@ -3501,14 +3562,14 @@
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
@@ -3517,15 +3578,12 @@
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="55"/>
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
@@ -3533,34 +3591,42 @@
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="C7" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="55"/>
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E8" s="51"/>
+      <c r="A8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="55"/>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="51"/>
-      <c r="F9" s="13"/>
+      <c r="E9" s="55"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="51"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="13"/>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
@@ -3568,7 +3634,7 @@
       <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="51"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="13"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
@@ -3576,7 +3642,7 @@
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="51"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="13"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
@@ -3584,54 +3650,62 @@
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="52"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
       <c r="J13" s="35"/>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="56"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="E16" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
     </row>
     <row r="17" spans="5:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
     </row>
     <row r="18" spans="5:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+    </row>
+    <row r="19" spans="5:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E15:J18"/>
+    <mergeCell ref="E16:J19"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="E3:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -3647,10 +3721,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3664,19 +3738,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="E1" s="41" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3733,24 +3807,24 @@
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+        <v>238</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>5</v>
@@ -3767,10 +3841,10 @@
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -3784,7 +3858,7 @@
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>9</v>
@@ -3800,28 +3874,34 @@
       <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -3858,6 +3938,17 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3877,10 +3968,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:M20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3890,30 +3981,32 @@
     <col min="3" max="3" width="30.625" style="6" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
     <col min="5" max="6" width="10.625" style="6" customWidth="1"/>
-    <col min="7" max="10" width="9" style="6"/>
-    <col min="11" max="13" width="13.625" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="6"/>
+    <col min="7" max="12" width="9" style="6"/>
+    <col min="13" max="15" width="13.625" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="E1" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -3923,35 +4016,37 @@
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="44" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-    </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N2" s="50"/>
+      <c r="O2" s="51"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>15</v>
@@ -3960,38 +4055,51 @@
         <v>13</v>
       </c>
       <c r="J3" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="N3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="O3" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D5" s="13"/>
-      <c r="E5" s="51"/>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="55"/>
       <c r="F5" s="17"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -4000,15 +4108,21 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="51"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="17"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -4016,19 +4130,13 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="13"/>
-      <c r="E7" s="51"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4036,16 +4144,17 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="51"/>
+      <c r="E8" s="55"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -4053,16 +4162,21 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="15"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="55"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4070,16 +4184,18 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="15"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="55"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -4087,143 +4203,284 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="55"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="55"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="55"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+      <c r="B17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="55"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-    </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-    </row>
-    <row r="17" spans="5:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-    </row>
-    <row r="18" spans="5:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-    </row>
-    <row r="19" spans="5:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-    </row>
-    <row r="20" spans="5:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="B18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="56"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+    </row>
+    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+    </row>
+    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+    </row>
+    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+    </row>
+    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+    </row>
+    <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+    </row>
+    <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+    </row>
+    <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="E20:O27"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="E1:O1"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:E13"/>
-    <mergeCell ref="E15:M20"/>
+    <mergeCell ref="E3:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B5 B8:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B7 B10:B1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4235,10 +4492,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:O18"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4249,24 +4506,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="E1" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="A1" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -4278,23 +4535,23 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="53" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="53" t="s">
+      <c r="H2" s="59"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="53" t="s">
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="54"/>
+      <c r="O2" s="58"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -4303,7 +4560,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="16" t="s">
         <v>55</v>
       </c>
@@ -4335,38 +4592,34 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="C5" s="21"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -4380,13 +4633,15 @@
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -4398,7 +4653,13 @@
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E7" s="51"/>
+      <c r="A7" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="55"/>
       <c r="F7" s="6"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -4411,7 +4672,7 @@
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E8" s="51"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -4424,8 +4685,8 @@
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="51"/>
-      <c r="F9" s="15"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4437,7 +4698,7 @@
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="51"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="15"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -4450,7 +4711,7 @@
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="51"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="15"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -4463,7 +4724,7 @@
       <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="51"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="15"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -4476,8 +4737,8 @@
       <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="52"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -4488,80 +4749,93 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="42" t="s">
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="56"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-    </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
     </row>
     <row r="18" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
     </row>
     <row r="19" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+    </row>
+    <row r="20" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="E15:O18"/>
+    <mergeCell ref="E16:O19"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:E13"/>
+    <mergeCell ref="E3:E14"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:O2"/>
@@ -4580,10 +4854,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4595,23 +4869,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="E1" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
+      <c r="A1" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -4623,76 +4897,75 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="56"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="60"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="L3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B4" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>5</v>
@@ -4710,7 +4983,7 @@
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>5</v>
@@ -4728,7 +5001,7 @@
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>5</v>
@@ -4746,7 +5019,7 @@
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>5</v>
@@ -4764,9 +5037,9 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B9" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="8"/>
@@ -4782,7 +5055,7 @@
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>5</v>
@@ -4798,9 +5071,9 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>5</v>
@@ -4816,11 +5089,11 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="8"/>
@@ -4836,7 +5109,7 @@
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>5</v>
@@ -4854,9 +5127,9 @@
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B14" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="8"/>
@@ -4872,10 +5145,10 @@
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>9</v>
+        <v>229</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>5</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -4888,114 +5161,174 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="17" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-    </row>
-    <row r="18" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-    </row>
-    <row r="19" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-    </row>
-    <row r="20" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-    </row>
-    <row r="21" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-    </row>
-    <row r="22" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-    </row>
-    <row r="23" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-    </row>
-    <row r="24" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E18" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+    </row>
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+    </row>
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+    </row>
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+    </row>
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+    </row>
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+    </row>
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+    </row>
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="42"/>
+    </row>
+    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E17:N24"/>
+    <mergeCell ref="E18:N24"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 B3:B18">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5006,10 +5339,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:N34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5020,26 +5353,25 @@
     <col min="4" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="E1" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-    </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -5050,39 +5382,36 @@
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>5</v>
@@ -5096,11 +5425,10 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>5</v>
@@ -5114,11 +5442,10 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>5</v>
@@ -5132,11 +5459,10 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>5</v>
@@ -5150,11 +5476,10 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>5</v>
@@ -5168,17 +5493,16 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -5189,17 +5513,16 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -5210,11 +5533,10 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>5</v>
@@ -5228,14 +5550,13 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -5246,14 +5567,13 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -5264,82 +5584,76 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="E15" s="41" t="s">
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="E14" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-    </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="62" t="s">
-        <v>243</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="39"/>
+    </row>
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>5</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -5347,9 +5661,9 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>5</v>
@@ -5361,15 +5675,12 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>5</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -5378,9 +5689,9 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>5</v>
@@ -5392,9 +5703,9 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>5</v>
@@ -5406,167 +5717,130 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-    </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-    </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-    </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-    </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-    </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-    </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-    </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-    </row>
-    <row r="33" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-    </row>
-    <row r="34" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="42"/>
+      <c r="E23" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+    </row>
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+    </row>
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+    </row>
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+    </row>
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+    </row>
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+    </row>
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+    </row>
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+    </row>
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+    </row>
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E25:N34"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E23:M32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B14 B17:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B1048576 B3:B13">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5592,11 +5866,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="A1" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -5611,7 +5885,7 @@
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>5</v>
@@ -5619,7 +5893,7 @@
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>5</v>
@@ -5627,7 +5901,7 @@
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>5</v>
@@ -5663,7 +5937,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A3:A10"/>
+      <selection activeCell="E15" sqref="E15:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5675,22 +5949,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="E1" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="A1" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -5702,22 +5976,22 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -5726,9 +6000,9 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>59</v>
@@ -5765,9 +6039,9 @@
       <c r="C4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -5788,9 +6062,9 @@
       <c r="C5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -5808,7 +6082,7 @@
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="55"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -5825,7 +6099,7 @@
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="55"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -5842,7 +6116,7 @@
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="55"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -5859,7 +6133,7 @@
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="51"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -5880,7 +6154,7 @@
       <c r="C10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="51"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -5892,7 +6166,7 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="51"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -5904,7 +6178,7 @@
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="51"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -5916,7 +6190,7 @@
       <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="52"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -5928,54 +6202,54 @@
       <c r="N13" s="14"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
     </row>
     <row r="17" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
     </row>
     <row r="18" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6016,31 +6290,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="E1" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
+      <c r="A1" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -6052,30 +6326,30 @@
       <c r="C2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="47"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="51"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -6084,72 +6358,72 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H3" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="J3" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="30" t="s">
-        <v>93</v>
-      </c>
       <c r="K3" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P3" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S3" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T3" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U3" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V3" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="51"/>
+        <v>141</v>
+      </c>
+      <c r="E4" s="55"/>
       <c r="F4" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="30"/>
@@ -6170,14 +6444,14 @@
     </row>
     <row r="5" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="30"/>
@@ -6198,12 +6472,12 @@
     </row>
     <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="6"/>
       <c r="G6" s="8"/>
       <c r="H6" s="30"/>
@@ -6224,12 +6498,12 @@
     </row>
     <row r="7" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="6"/>
       <c r="G7" s="8"/>
       <c r="H7" s="30"/>
@@ -6250,12 +6524,12 @@
     </row>
     <row r="8" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
       <c r="H8" s="30"/>
@@ -6276,12 +6550,12 @@
     </row>
     <row r="9" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="51"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="13"/>
       <c r="G9" s="8"/>
       <c r="H9" s="30"/>
@@ -6302,12 +6576,12 @@
     </row>
     <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="51"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="30"/>
@@ -6328,12 +6602,12 @@
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="51"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="13"/>
       <c r="G11" s="8"/>
       <c r="H11" s="30"/>
@@ -6354,12 +6628,12 @@
     </row>
     <row r="12" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="51"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="13"/>
       <c r="G12" s="8"/>
       <c r="H12" s="30"/>
@@ -6380,12 +6654,12 @@
     </row>
     <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="52"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="25"/>
       <c r="G13" s="8"/>
       <c r="H13" s="30"/>
@@ -6406,7 +6680,7 @@
     </row>
     <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>5</v>
@@ -6414,7 +6688,7 @@
     </row>
     <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>5</v>
@@ -6422,7 +6696,7 @@
     </row>
     <row r="16" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>5</v>
@@ -6430,7 +6704,7 @@
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>5</v>
@@ -6438,13 +6712,13 @@
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
+++ b/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="841" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="841" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="库存模块功能导航" sheetId="1" r:id="rId1"/>
@@ -13,19 +13,18 @@
     <sheet name="菜品配料设置" sheetId="4" r:id="rId4"/>
     <sheet name="入库管理" sheetId="7" r:id="rId5"/>
     <sheet name="库存盘点" sheetId="10" r:id="rId6"/>
-    <sheet name="库存月结" sheetId="11" r:id="rId7"/>
-    <sheet name="进销存明细" sheetId="12" r:id="rId8"/>
-    <sheet name="进销存汇总" sheetId="15" r:id="rId9"/>
-    <sheet name="库存情况统计" sheetId="13" r:id="rId10"/>
-    <sheet name="消耗差异表" sheetId="14" r:id="rId11"/>
-    <sheet name="库存分布" sheetId="17" r:id="rId12"/>
+    <sheet name="进销存明细" sheetId="12" r:id="rId7"/>
+    <sheet name="进销存汇总" sheetId="15" r:id="rId8"/>
+    <sheet name="库存情况统计" sheetId="13" r:id="rId9"/>
+    <sheet name="消耗差异表" sheetId="14" r:id="rId10"/>
+    <sheet name="库存分布" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="251">
   <si>
     <t>级别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -895,22 +894,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>月结基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐厅编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月结月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>菜品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -939,23 +922,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经办人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>操作员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>品项编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1030,10 +1001,6 @@
   </si>
   <si>
     <t>品项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:盘点中 2:完成 3:审核通过 4:冲红</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1045,6 +1012,30 @@
     4.审核通过后将自动生成相关信息,不能再修改删除, 未审核可取消盘点.
 二.货品类型固定分为1(商品)2(原料),当类型为商品时,当次盘点任务只能盘点商品库存信息; 当类型为原料时,当次盘点任务只能盘点原料信息,如果指定某个原料类别则只能盘点该类别下的原料.
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:盘点中 2:完成 3:审核通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:未审核 2:审核通过 3:冲红</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1277,7 +1268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1390,9 +1381,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,13 +1393,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2971,210 +2959,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="30.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9" style="29"/>
-    <col min="3" max="3" width="30.625" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="61" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="55"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E8" s="55"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="55"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="55"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="55"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="55"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="56"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:E13"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3186,23 +2974,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="61" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="E1" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3214,22 +3002,22 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="48" t="s">
+      <c r="F2" s="50"/>
+      <c r="G2" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="50" t="s">
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="50"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -3238,7 +3026,7 @@
       <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -3274,7 +3062,7 @@
       <c r="B4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -3294,7 +3082,7 @@
       <c r="B5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -3317,7 +3105,7 @@
       <c r="C6" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="54"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -3337,7 +3125,7 @@
       <c r="C7" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="54"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -3357,7 +3145,7 @@
       <c r="C8" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="54"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -3377,7 +3165,7 @@
       <c r="C9" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="55"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="13"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -3398,7 +3186,7 @@
       <c r="C10" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -3410,7 +3198,7 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="55"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="13"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -3422,7 +3210,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="55"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="13"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -3434,7 +3222,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="56"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="25"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -3466,12 +3254,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3483,23 +3271,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="61" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="E1" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3511,10 +3299,10 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="50"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="31"/>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
@@ -3527,7 +3315,7 @@
       <c r="B3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -3546,12 +3334,12 @@
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="55"/>
+        <v>242</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="54"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -3567,7 +3355,7 @@
       <c r="B5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -3583,7 +3371,7 @@
       <c r="B6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="54"/>
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
@@ -3599,7 +3387,7 @@
       <c r="C7" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="54"/>
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
@@ -3612,21 +3400,21 @@
       <c r="B8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="54"/>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="55"/>
+      <c r="E9" s="54"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="55"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="13"/>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
@@ -3634,7 +3422,7 @@
       <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="55"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="13"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
@@ -3642,7 +3430,7 @@
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="55"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="13"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
@@ -3650,7 +3438,7 @@
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="55"/>
+      <c r="E13" s="54"/>
       <c r="F13" s="13"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
@@ -3658,7 +3446,7 @@
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="56"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="25"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
@@ -3666,38 +3454,38 @@
       <c r="J14" s="35"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="5:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="5:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="5:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3738,19 +3526,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="46" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="E1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3807,15 +3595,15 @@
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="41"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="13"/>
@@ -3970,7 +3758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E20" sqref="E20:O27"/>
     </sheetView>
   </sheetViews>
@@ -3987,24 +3775,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="46" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="E1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -4016,23 +3804,23 @@
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="48" t="s">
+      <c r="F2" s="52"/>
+      <c r="G2" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50" t="s">
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="51"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -4041,7 +3829,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="16" t="s">
         <v>159</v>
       </c>
@@ -4055,10 +3843,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>16</v>
@@ -4075,15 +3863,15 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="55"/>
+        <v>231</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="54"/>
       <c r="F4" s="17"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="41"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -4099,7 +3887,7 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="17"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -4113,15 +3901,15 @@
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E6" s="55"/>
+        <v>234</v>
+      </c>
+      <c r="E6" s="54"/>
       <c r="F6" s="17"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -4135,7 +3923,7 @@
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="13"/>
-      <c r="E7" s="55"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="17"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -4148,13 +3936,13 @@
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="55"/>
+      <c r="E8" s="54"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -4176,7 +3964,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="55"/>
+      <c r="E9" s="54"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4195,7 +3983,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="55"/>
+      <c r="E10" s="54"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -4208,15 +3996,15 @@
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="45"/>
+        <v>231</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="54"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="41"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -4227,15 +4015,15 @@
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="45"/>
+        <v>236</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="41"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
@@ -4246,15 +4034,15 @@
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="45"/>
+        <v>237</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="54"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="41"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
@@ -4270,7 +4058,7 @@
       <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="55"/>
+      <c r="E14" s="54"/>
       <c r="F14" s="15"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -4284,12 +4072,12 @@
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="55"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="15"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -4309,9 +4097,9 @@
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E16" s="55"/>
+        <v>238</v>
+      </c>
+      <c r="E16" s="54"/>
       <c r="F16" s="15"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -4330,7 +4118,7 @@
       <c r="B17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="55"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="15"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -4349,7 +4137,7 @@
       <c r="B18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="56"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="18"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -4362,110 +4150,110 @@
       <c r="O18" s="8"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E20" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
+      <c r="E20" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4495,7 +4283,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="E16" sqref="E16:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4506,24 +4294,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="46" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="E1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -4535,23 +4323,23 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="57" t="s">
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="57" t="s">
+      <c r="H2" s="58"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="57" t="s">
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="58"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -4560,7 +4348,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="16" t="s">
         <v>55</v>
       </c>
@@ -4594,32 +4382,36 @@
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="14"/>
+        <v>231</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="F4" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="41"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="21"/>
-      <c r="E5" s="55"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -4633,15 +4425,13 @@
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="17" t="s">
-        <v>57</v>
-      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -4654,13 +4444,12 @@
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="54"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4672,7 +4461,7 @@
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E8" s="55"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -4685,7 +4474,7 @@
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="55"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="6"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -4698,7 +4487,7 @@
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="55"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="15"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -4711,7 +4500,7 @@
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="55"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="15"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -4724,7 +4513,7 @@
       <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="55"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="15"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -4737,7 +4526,7 @@
       <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="55"/>
+      <c r="E13" s="54"/>
       <c r="F13" s="15"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -4750,7 +4539,7 @@
       <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="56"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="18"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -4763,58 +4552,58 @@
       <c r="O14" s="8"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
     </row>
     <row r="17" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
     </row>
     <row r="18" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
     </row>
     <row r="19" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
     </row>
     <row r="20" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E20" s="19"/>
@@ -4856,8 +4645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4869,23 +4658,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="46" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="E1" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -4897,16 +4686,16 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="60"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="59"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -4948,15 +4737,15 @@
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="41"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="13"/>
@@ -4965,7 +4754,7 @@
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>5</v>
@@ -5019,7 +4808,7 @@
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>5</v>
@@ -5055,7 +4844,7 @@
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>5</v>
@@ -5145,10 +4934,13 @@
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -5181,42 +4973,42 @@
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="41" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
+      <c r="A19" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
@@ -5228,95 +5020,95 @@
       <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="39"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
+      <c r="A21" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
+      <c r="B22" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
+        <v>229</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
+        <v>230</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="42"/>
+      <c r="B25" s="41"/>
     </row>
     <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="42"/>
+      <c r="B26" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5339,10 +5131,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:M32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5354,22 +5146,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="61" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="E1" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -5411,7 +5203,7 @@
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>5</v>
@@ -5479,7 +5271,7 @@
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>5</v>
@@ -5496,13 +5288,13 @@
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -5522,7 +5314,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -5536,9 +5328,9 @@
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="44" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="8"/>
@@ -5553,10 +5345,10 @@
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -5570,10 +5362,10 @@
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -5585,75 +5377,78 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="46" t="s">
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="E14" s="46" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="E15" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+    </row>
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J16" s="8" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>5</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="38"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -5663,7 +5458,7 @@
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>5</v>
@@ -5677,7 +5472,7 @@
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>5</v>
@@ -5691,7 +5486,7 @@
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>5</v>
@@ -5705,7 +5500,7 @@
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>5</v>
@@ -5717,130 +5512,144 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="42"/>
-      <c r="E23" s="47" t="s">
-        <v>252</v>
-      </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
+      <c r="B24" s="41"/>
+      <c r="E24" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+    </row>
+    <row r="33" spans="5:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
     <mergeCell ref="E1:M1"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E23:M32"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E24:M33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B1048576 B3:B13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B1048576 B3:B14">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5850,89 +5659,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="30.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9" style="38"/>
-    <col min="3" max="3" width="30.625" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B14 B17:B1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -5949,22 +5675,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="61" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="E1" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -5976,22 +5702,22 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="48" t="s">
+      <c r="F2" s="50"/>
+      <c r="G2" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="50"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -6000,7 +5726,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -6039,7 +5765,7 @@
       <c r="C4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -6062,7 +5788,7 @@
       <c r="C5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -6082,7 +5808,7 @@
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="54"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -6099,7 +5825,7 @@
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="54"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -6116,7 +5842,7 @@
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="54"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -6133,7 +5859,7 @@
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="55"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -6154,7 +5880,7 @@
       <c r="C10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -6166,7 +5892,7 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="55"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -6178,7 +5904,7 @@
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="55"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -6190,7 +5916,7 @@
       <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="56"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -6202,54 +5928,54 @@
       <c r="N13" s="14"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
     </row>
     <row r="17" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
     </row>
     <row r="18" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6273,7 +5999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
@@ -6290,31 +6016,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="46" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="E1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -6326,30 +6052,30 @@
       <c r="C2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="65" t="s">
+      <c r="F2" s="52"/>
+      <c r="G2" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="50" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="51"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="50"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -6358,7 +6084,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -6421,7 +6147,7 @@
       <c r="C4" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -6449,7 +6175,7 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -6477,7 +6203,7 @@
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="6"/>
       <c r="G6" s="8"/>
       <c r="H6" s="30"/>
@@ -6503,7 +6229,7 @@
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="6"/>
       <c r="G7" s="8"/>
       <c r="H7" s="30"/>
@@ -6529,7 +6255,7 @@
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
       <c r="H8" s="30"/>
@@ -6555,7 +6281,7 @@
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="55"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="13"/>
       <c r="G9" s="8"/>
       <c r="H9" s="30"/>
@@ -6581,7 +6307,7 @@
       <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="30"/>
@@ -6607,7 +6333,7 @@
       <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="55"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="13"/>
       <c r="G11" s="8"/>
       <c r="H11" s="30"/>
@@ -6633,7 +6359,7 @@
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="55"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="13"/>
       <c r="G12" s="8"/>
       <c r="H12" s="30"/>
@@ -6659,7 +6385,7 @@
       <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="56"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="25"/>
       <c r="G13" s="8"/>
       <c r="H13" s="30"/>
@@ -6740,4 +6466,204 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="30.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="29"/>
+    <col min="3" max="3" width="30.625" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="E1" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="50"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="53"/>
+      <c r="F3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="F4" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="54"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="54"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E10" s="54"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E11" s="54"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="54"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="55"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
+++ b/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="841" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="841" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="库存模块功能导航" sheetId="1" r:id="rId1"/>
@@ -986,16 +986,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">说明:
-一.品项类别属性只有两种:1.商品 2.原料, 商品属性一个餐厅必须有且唯一, 由系统管理, 原料科由用户管理.
-二.原料资料状态由系统管理.
-三.删除原料资料时,没有历史数据物理删除相关信息,删除后不可恢复,否则不处理.
-四.删除商品资料,由菜品库存属性决定, 当用户确定后, 将删除商品基础资料, 历史信息保留,但显示为已删除品项.
-五.总数量,是汇总各部门库存分布情况后的结果.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品项编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1036,6 +1026,17 @@
   </si>
   <si>
     <t>1:未审核 2:审核通过 3:冲红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">说明:
+一.品项类别属性只有两种:1.商品 2.原料, 商品属性一个餐厅必须有且唯一, 由系统管理, 原料科由用户管理.
+二.原料资料状态由系统管理.
+三.删除原料资料时,没有历史数据物理删除相关信息,删除后不可恢复,否则不处理.
+四.删除商品资料,由菜品库存属性决定, 当用户确定后, 将删除商品基础资料, 历史信息保留,但显示为已删除品项.
+五.总数量,是汇总各部门库存分布情况后的结果.
+六.商品类型资料由菜品库存管理属性决定,商品资料一旦生成不可删除且不会重复,,菜品资料删除时只移除两者关系,商品资料垃圾信息由系统回收.
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3258,7 +3259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16:J19"/>
     </sheetView>
   </sheetViews>
@@ -3334,7 +3335,7 @@
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
@@ -3512,7 +3513,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3758,7 +3759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E20" sqref="E20:O27"/>
     </sheetView>
   </sheetViews>
@@ -4151,7 +4152,7 @@
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E20" s="46" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
@@ -4645,8 +4646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4748,9 +4749,10 @@
       <c r="H4" s="40"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
@@ -4934,13 +4936,13 @@
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -5271,7 +5273,7 @@
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>5</v>
@@ -5288,7 +5290,7 @@
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>5</v>
@@ -5314,7 +5316,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -5328,7 +5330,7 @@
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>5</v>
@@ -5443,7 +5445,7 @@
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>5</v>
@@ -5529,7 +5531,7 @@
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="41"/>
       <c r="E24" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F24" s="61"/>
       <c r="G24" s="61"/>

--- a/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
+++ b/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="841" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="841" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="库存模块功能导航" sheetId="1" r:id="rId1"/>
@@ -887,13 +887,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>说明:
-一.入库单需要审核之后才能入库更新数据.
-二.入库日期必须是当前库存会计月份内,此月份由系统管理.
-三.入库单类型包括:商品入库,商品调拨,商品报溢,原料入库,原料调拨,原料报溢,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>菜品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -927,10 +920,6 @@
   </si>
   <si>
     <t>品项编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单明细信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1039,12 +1028,24 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>入库单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明:
+一.入库单需要审核之后才能入库更新数据.
+二.入库日期必须是当前库存会计月份内,此月份由系统管理.
+三.入库单类型包括:商品入库,商品调拨,商品报溢,原料入库,原料调拨,原料报溢.
+四.入库单明细信息,入库单号对应入库单基本信息数据编号,一条基础信息对应多条明细信息.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,6 +1106,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1269,7 +1277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1403,6 +1411,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1465,6 +1476,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2975,23 +2992,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="E1" s="60" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3003,22 +3020,22 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="47" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="49" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -3027,7 +3044,7 @@
       <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -3063,7 +3080,7 @@
       <c r="B4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -3083,7 +3100,7 @@
       <c r="B5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="54"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -3106,7 +3123,7 @@
       <c r="C6" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="54"/>
+      <c r="E6" s="55"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -3126,7 +3143,7 @@
       <c r="C7" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="54"/>
+      <c r="E7" s="55"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -3146,7 +3163,7 @@
       <c r="C8" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="54"/>
+      <c r="E8" s="55"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -3166,7 +3183,7 @@
       <c r="C9" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="54"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="13"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -3187,7 +3204,7 @@
       <c r="C10" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="54"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -3199,7 +3216,7 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="54"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="13"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -3211,7 +3228,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="54"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="13"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -3223,7 +3240,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="55"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="25"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -3272,23 +3289,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="E1" s="60" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3300,10 +3317,10 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="49"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="31"/>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
@@ -3316,7 +3333,7 @@
       <c r="B3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -3335,12 +3352,12 @@
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -3356,7 +3373,7 @@
       <c r="B5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="54"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -3372,7 +3389,7 @@
       <c r="B6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="54"/>
+      <c r="E6" s="55"/>
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
@@ -3388,7 +3405,7 @@
       <c r="C7" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="54"/>
+      <c r="E7" s="55"/>
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
@@ -3401,21 +3418,21 @@
       <c r="B8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="54"/>
+      <c r="E8" s="55"/>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="54"/>
+      <c r="E9" s="55"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="54"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="13"/>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
@@ -3423,7 +3440,7 @@
       <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="54"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="13"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
@@ -3431,7 +3448,7 @@
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="54"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="13"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
@@ -3439,7 +3456,7 @@
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="54"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="13"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
@@ -3447,7 +3464,7 @@
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="55"/>
+      <c r="E14" s="56"/>
       <c r="F14" s="25"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
@@ -3455,38 +3472,38 @@
       <c r="J14" s="35"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
     </row>
     <row r="17" spans="5:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
     </row>
     <row r="18" spans="5:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
     </row>
     <row r="19" spans="5:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3527,19 +3544,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="E1" s="45" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3596,7 +3613,7 @@
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
@@ -3759,7 +3776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E20" sqref="E20:O27"/>
     </sheetView>
   </sheetViews>
@@ -3776,24 +3793,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="E1" s="45" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3805,23 +3822,23 @@
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="47" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="51"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -3830,7 +3847,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="16" t="s">
         <v>159</v>
       </c>
@@ -3844,10 +3861,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>16</v>
@@ -3864,12 +3881,12 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="17"/>
       <c r="G4" s="14"/>
       <c r="H4" s="40"/>
@@ -3888,7 +3905,7 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="54"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="17"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3902,15 +3919,15 @@
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B6" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E6" s="54"/>
+        <v>232</v>
+      </c>
+      <c r="E6" s="55"/>
       <c r="F6" s="17"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -3924,7 +3941,7 @@
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="13"/>
-      <c r="E7" s="54"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="17"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -3937,13 +3954,13 @@
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="54"/>
+      <c r="E8" s="55"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -3965,7 +3982,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="54"/>
+      <c r="E9" s="55"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -3984,7 +4001,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="54"/>
+      <c r="E10" s="55"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -3997,12 +4014,12 @@
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B11" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="54"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="43"/>
       <c r="G11" s="14"/>
       <c r="H11" s="40"/>
@@ -4016,12 +4033,12 @@
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="54"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="43"/>
       <c r="G12" s="14"/>
       <c r="H12" s="40"/>
@@ -4035,12 +4052,12 @@
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="54"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="43"/>
       <c r="G13" s="14"/>
       <c r="H13" s="40"/>
@@ -4059,7 +4076,7 @@
       <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="54"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="15"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -4073,12 +4090,12 @@
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="54"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="15"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -4098,9 +4115,9 @@
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E16" s="54"/>
+        <v>236</v>
+      </c>
+      <c r="E16" s="55"/>
       <c r="F16" s="15"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -4119,7 +4136,7 @@
       <c r="B17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="54"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="15"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -4138,7 +4155,7 @@
       <c r="B18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="55"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="18"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -4151,110 +4168,110 @@
       <c r="O18" s="8"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E20" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
+      <c r="E20" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4295,24 +4312,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="E1" s="45" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -4324,23 +4341,23 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="56" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="56" t="s">
+      <c r="H2" s="59"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="56" t="s">
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="57"/>
+      <c r="O2" s="58"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -4349,7 +4366,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="16" t="s">
         <v>55</v>
       </c>
@@ -4383,12 +4400,12 @@
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="17" t="s">
         <v>56</v>
       </c>
@@ -4404,13 +4421,13 @@
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="21"/>
-      <c r="E5" s="54"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="17" t="s">
         <v>57</v>
       </c>
@@ -4426,12 +4443,12 @@
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="54"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="6"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -4445,12 +4462,12 @@
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="54"/>
+      <c r="E7" s="55"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4462,7 +4479,7 @@
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E8" s="54"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -4475,7 +4492,7 @@
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="54"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="6"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -4488,7 +4505,7 @@
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="54"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="15"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -4501,7 +4518,7 @@
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="54"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="15"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -4514,7 +4531,7 @@
       <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="54"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="15"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -4527,7 +4544,7 @@
       <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="54"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="15"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -4540,7 +4557,7 @@
       <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="55"/>
+      <c r="E14" s="56"/>
       <c r="F14" s="18"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -4553,58 +4570,58 @@
       <c r="O14" s="8"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
     </row>
     <row r="18" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
     </row>
     <row r="19" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
     </row>
     <row r="20" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E20" s="19"/>
@@ -4646,8 +4663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4659,23 +4676,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="E1" s="45" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -4687,16 +4704,16 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="59"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="60"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -4705,6 +4722,7 @@
       <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="20"/>
       <c r="E3" s="8" t="s">
         <v>177</v>
       </c>
@@ -4738,11 +4756,12 @@
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="20"/>
       <c r="E4" s="8"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -4756,11 +4775,12 @@
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="20"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -4779,6 +4799,7 @@
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="20"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -4797,6 +4818,7 @@
       <c r="B7" s="34" t="s">
         <v>5</v>
       </c>
+      <c r="C7" s="20"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -4810,11 +4832,12 @@
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>5</v>
       </c>
+      <c r="C8" s="20"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -4833,6 +4856,7 @@
       <c r="B9" s="34" t="s">
         <v>5</v>
       </c>
+      <c r="C9" s="20"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -4846,11 +4870,12 @@
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>5</v>
       </c>
+      <c r="C10" s="20"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -4869,6 +4894,7 @@
       <c r="B11" s="36" t="s">
         <v>5</v>
       </c>
+      <c r="C11" s="20"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -4887,6 +4913,7 @@
       <c r="B12" s="36" t="s">
         <v>5</v>
       </c>
+      <c r="C12" s="20"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -4905,6 +4932,7 @@
       <c r="B13" s="34" t="s">
         <v>5</v>
       </c>
+      <c r="C13" s="20"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -4923,6 +4951,7 @@
       <c r="B14" s="34" t="s">
         <v>5</v>
       </c>
+      <c r="C14" s="20"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -4936,13 +4965,13 @@
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>249</v>
+      <c r="C15" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -4962,6 +4991,7 @@
       <c r="B16" s="34" t="s">
         <v>9</v>
       </c>
+      <c r="C16" s="20"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -4974,83 +5004,95 @@
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>5</v>
-      </c>
+      <c r="B17" s="45"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
+      <c r="A18" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="E18" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
+      <c r="A20" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
+        <v>249</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
@@ -5059,70 +5101,83 @@
       <c r="B22" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
+      <c r="C22" s="68"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B23" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
+      <c r="C23" s="68"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B24" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
+      <c r="C24" s="68"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="41"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
     </row>
     <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="E18:N25"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E18:N24"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B1048576 B3:B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B1048576 B3:B17">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5148,22 +5203,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="E1" s="60" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -5205,7 +5260,7 @@
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>5</v>
@@ -5273,7 +5328,7 @@
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>5</v>
@@ -5290,13 +5345,13 @@
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -5316,7 +5371,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -5330,7 +5385,7 @@
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>5</v>
@@ -5397,19 +5452,19 @@
       <c r="M13" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="E15" s="45" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="E15" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
@@ -5445,7 +5500,7 @@
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>5</v>
@@ -5460,7 +5515,7 @@
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>5</v>
@@ -5530,116 +5585,116 @@
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="41"/>
-      <c r="E24" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
+      <c r="E24" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
     </row>
     <row r="33" spans="5:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5677,22 +5732,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="E1" s="60" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -5704,22 +5759,22 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="47" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -5728,7 +5783,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -5767,7 +5822,7 @@
       <c r="C4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -5790,7 +5845,7 @@
       <c r="C5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="54"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -5810,7 +5865,7 @@
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="54"/>
+      <c r="E6" s="55"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -5827,7 +5882,7 @@
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="54"/>
+      <c r="E7" s="55"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -5844,7 +5899,7 @@
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="54"/>
+      <c r="E8" s="55"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -5861,7 +5916,7 @@
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="54"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -5882,7 +5937,7 @@
       <c r="C10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="54"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -5894,7 +5949,7 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="54"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -5906,7 +5961,7 @@
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="54"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -5918,7 +5973,7 @@
       <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="55"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -5930,54 +5985,54 @@
       <c r="N13" s="14"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
     </row>
     <row r="17" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
     </row>
     <row r="18" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6018,31 +6073,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="E1" s="45" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -6054,30 +6109,30 @@
       <c r="C2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="64" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="49" t="s">
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="51"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -6086,7 +6141,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -6149,7 +6204,7 @@
       <c r="C4" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -6177,7 +6232,7 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="54"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -6205,7 +6260,7 @@
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="54"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="6"/>
       <c r="G6" s="8"/>
       <c r="H6" s="30"/>
@@ -6231,7 +6286,7 @@
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="54"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="6"/>
       <c r="G7" s="8"/>
       <c r="H7" s="30"/>
@@ -6257,7 +6312,7 @@
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="54"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
       <c r="H8" s="30"/>
@@ -6283,7 +6338,7 @@
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="54"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="13"/>
       <c r="G9" s="8"/>
       <c r="H9" s="30"/>
@@ -6309,7 +6364,7 @@
       <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="54"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="30"/>
@@ -6335,7 +6390,7 @@
       <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="54"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="13"/>
       <c r="G11" s="8"/>
       <c r="H11" s="30"/>
@@ -6361,7 +6416,7 @@
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="54"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="13"/>
       <c r="G12" s="8"/>
       <c r="H12" s="30"/>
@@ -6387,7 +6442,7 @@
       <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="55"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="25"/>
       <c r="G13" s="8"/>
       <c r="H13" s="30"/>
@@ -6487,19 +6542,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="E1" s="60" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -6511,10 +6566,10 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="50"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="27"/>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
@@ -6527,7 +6582,7 @@
       <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -6551,7 +6606,7 @@
       <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -6567,7 +6622,7 @@
       <c r="B5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="54"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -6583,7 +6638,7 @@
       <c r="B6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="54"/>
+      <c r="E6" s="55"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -6599,21 +6654,21 @@
       <c r="C7" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="54"/>
+      <c r="E7" s="55"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E8" s="54"/>
+      <c r="E8" s="55"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="54"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="13"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -6621,7 +6676,7 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="54"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -6629,7 +6684,7 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="54"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="13"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -6637,7 +6692,7 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="54"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="13"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -6645,7 +6700,7 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="55"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="25"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>

--- a/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
+++ b/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="255">
   <si>
     <t>级别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -714,10 +714,6 @@
   </si>
   <si>
     <t>经办人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1033,11 +1029,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>原始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货单类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据生成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.入库单 2.出库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>说明:
-一.入库单需要审核之后才能入库更新数据.
-二.入库日期必须是当前库存会计月份内,此月份由系统管理.
-三.入库单类型包括:商品入库,商品调拨,商品报溢,原料入库,原料调拨,原料报溢.
-四.入库单明细信息,入库单号对应入库单基本信息数据编号,一条基础信息对应多条明细信息.</t>
+一.出入库单需要审核之后才能入库更新数据.
+二.出入库日期必须是当前库存会计月份内,此月份由系统管理.
+三.出入库单类型包括:商品入库,商品调拨,商品报溢,原料入库,原料调拨,原料报溢.
+四.出入库单明细信息,入库单号对应入库单基本信息数据编号,一条基础信息对应多条明细信息.
+五.新生的单据状态为未审核,审核通过后的单方可冲红,冲红即取消该单据对库存资料修改.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1277,7 +1294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1414,6 +1431,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1476,12 +1502,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2992,23 +3012,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="61" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="E1" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3020,22 +3040,22 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="48" t="s">
+      <c r="F2" s="54"/>
+      <c r="G2" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="50" t="s">
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -3044,7 +3064,7 @@
       <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -3080,7 +3100,7 @@
       <c r="B4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -3100,7 +3120,7 @@
       <c r="B5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -3123,7 +3143,7 @@
       <c r="C6" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="58"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -3143,7 +3163,7 @@
       <c r="C7" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="58"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -3163,7 +3183,7 @@
       <c r="C8" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="58"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -3183,7 +3203,7 @@
       <c r="C9" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="55"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="13"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -3204,7 +3224,7 @@
       <c r="C10" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -3216,7 +3236,7 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="55"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="13"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -3228,7 +3248,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="55"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="13"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -3240,7 +3260,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="56"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="25"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -3289,23 +3309,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="61" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="E1" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3317,10 +3337,10 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="50"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="31"/>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
@@ -3333,7 +3353,7 @@
       <c r="B3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -3352,12 +3372,12 @@
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -3373,7 +3393,7 @@
       <c r="B5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -3389,7 +3409,7 @@
       <c r="B6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="58"/>
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
@@ -3405,7 +3425,7 @@
       <c r="C7" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="58"/>
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
@@ -3418,21 +3438,21 @@
       <c r="B8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="58"/>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="55"/>
+      <c r="E9" s="58"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="55"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="13"/>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
@@ -3440,7 +3460,7 @@
       <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="55"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="13"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
@@ -3448,7 +3468,7 @@
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="55"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="13"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
@@ -3456,7 +3476,7 @@
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="55"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="13"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
@@ -3464,7 +3484,7 @@
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="56"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="25"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
@@ -3472,38 +3492,38 @@
       <c r="J14" s="35"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="5:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="5:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="5:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3544,19 +3564,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="46" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="E1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3613,7 +3633,7 @@
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
@@ -3793,24 +3813,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="46" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="E1" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3822,23 +3842,23 @@
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="48" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50" t="s">
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="51"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="54"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -3847,7 +3867,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="16" t="s">
         <v>159</v>
       </c>
@@ -3861,10 +3881,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>237</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>238</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>16</v>
@@ -3881,12 +3901,12 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="17"/>
       <c r="G4" s="14"/>
       <c r="H4" s="40"/>
@@ -3905,7 +3925,7 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="17"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3919,15 +3939,15 @@
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="17"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -3941,7 +3961,7 @@
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="13"/>
-      <c r="E7" s="55"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="17"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -3954,13 +3974,13 @@
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="55"/>
+      <c r="E8" s="58"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -3982,7 +4002,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="55"/>
+      <c r="E9" s="58"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4001,7 +4021,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="55"/>
+      <c r="E10" s="58"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -4014,12 +4034,12 @@
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="55"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="43"/>
       <c r="G11" s="14"/>
       <c r="H11" s="40"/>
@@ -4033,12 +4053,12 @@
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="55"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="43"/>
       <c r="G12" s="14"/>
       <c r="H12" s="40"/>
@@ -4052,12 +4072,12 @@
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="55"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="43"/>
       <c r="G13" s="14"/>
       <c r="H13" s="40"/>
@@ -4076,7 +4096,7 @@
       <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="55"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="15"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -4090,12 +4110,12 @@
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="55"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="15"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -4115,9 +4135,9 @@
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E16" s="55"/>
+        <v>235</v>
+      </c>
+      <c r="E16" s="58"/>
       <c r="F16" s="15"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -4136,7 +4156,7 @@
       <c r="B17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="55"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="15"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -4155,7 +4175,7 @@
       <c r="B18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="56"/>
+      <c r="E18" s="59"/>
       <c r="F18" s="18"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -4168,110 +4188,110 @@
       <c r="O18" s="8"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E20" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
+      <c r="E20" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4312,24 +4332,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="46" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="E1" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -4341,23 +4361,23 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="57" t="s">
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="57" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="57" t="s">
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="58"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -4366,7 +4386,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="16" t="s">
         <v>55</v>
       </c>
@@ -4400,12 +4420,12 @@
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="17" t="s">
         <v>56</v>
       </c>
@@ -4421,13 +4441,13 @@
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="21"/>
-      <c r="E5" s="55"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="17" t="s">
         <v>57</v>
       </c>
@@ -4443,12 +4463,12 @@
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="6"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -4462,12 +4482,12 @@
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="58"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4479,7 +4499,7 @@
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E8" s="55"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -4492,7 +4512,7 @@
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="55"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="6"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -4505,7 +4525,7 @@
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="55"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="15"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -4518,7 +4538,7 @@
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="55"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="15"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -4531,7 +4551,7 @@
       <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="55"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="15"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -4544,7 +4564,7 @@
       <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="55"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="15"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -4557,7 +4577,7 @@
       <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="56"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="18"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -4570,58 +4590,58 @@
       <c r="O14" s="8"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
     </row>
     <row r="17" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
     </row>
     <row r="18" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
     </row>
     <row r="19" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
     </row>
     <row r="20" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E20" s="19"/>
@@ -4661,10 +4681,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:N25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4676,23 +4696,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="E1" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -4704,16 +4724,16 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="60"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="63"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -4724,39 +4744,39 @@
       </c>
       <c r="C3" s="20"/>
       <c r="E3" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="K3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
@@ -4775,9 +4795,9 @@
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="20"/>
@@ -4794,7 +4814,7 @@
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>5</v>
@@ -4813,7 +4833,7 @@
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>5</v>
@@ -4832,7 +4852,7 @@
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>5</v>
@@ -4851,7 +4871,7 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>5</v>
@@ -4870,9 +4890,9 @@
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B10" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="20"/>
@@ -4889,7 +4909,7 @@
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>5</v>
@@ -4906,9 +4926,9 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>5</v>
@@ -4925,11 +4945,11 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="20"/>
@@ -4946,7 +4966,7 @@
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>5</v>
@@ -4965,13 +4985,13 @@
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B15" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -4986,12 +5006,14 @@
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="20"/>
+        <v>251</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>253</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -5004,180 +5026,220 @@
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="45"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="A17" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="E18" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
+      <c r="A18" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="45"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="E20" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+    </row>
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-    </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="67"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-    </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="67"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>138</v>
+      <c r="A22" s="42" t="s">
+        <v>229</v>
       </c>
       <c r="B22" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="68"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
+      <c r="A23" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="B24" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="41"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
+      <c r="A25" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
     </row>
     <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="41"/>
+      <c r="A26" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="48"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+    </row>
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="41"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+    </row>
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E18:N25"/>
+    <mergeCell ref="E20:N27"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B1048576 B3:B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B1048576 B3:B19">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5203,22 +5265,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="A1" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="E1" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -5231,36 +5293,36 @@
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>5</v>
@@ -5277,7 +5339,7 @@
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>5</v>
@@ -5294,7 +5356,7 @@
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>5</v>
@@ -5311,7 +5373,7 @@
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>5</v>
@@ -5328,7 +5390,7 @@
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>5</v>
@@ -5345,13 +5407,13 @@
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -5365,13 +5427,13 @@
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -5385,7 +5447,7 @@
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>5</v>
@@ -5402,7 +5464,7 @@
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>5</v>
@@ -5419,7 +5481,7 @@
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>9</v>
@@ -5436,7 +5498,7 @@
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>5</v>
@@ -5452,19 +5514,19 @@
       <c r="M13" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="E15" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="A15" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="E15" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
@@ -5480,27 +5542,27 @@
         <v>8</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>211</v>
-      </c>
       <c r="G16" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>5</v>
@@ -5515,7 +5577,7 @@
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>5</v>
@@ -5529,7 +5591,7 @@
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>5</v>
@@ -5543,7 +5605,7 @@
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>5</v>
@@ -5557,7 +5619,7 @@
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>5</v>
@@ -5571,7 +5633,7 @@
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" s="37" t="s">
         <v>5</v>
@@ -5585,116 +5647,116 @@
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="41"/>
-      <c r="E24" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
+      <c r="E24" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
     </row>
     <row r="33" spans="5:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5732,22 +5794,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="61" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="E1" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -5759,22 +5821,22 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="48" t="s">
+      <c r="F2" s="54"/>
+      <c r="G2" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50" t="s">
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -5783,7 +5845,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -5822,7 +5884,7 @@
       <c r="C4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -5845,7 +5907,7 @@
       <c r="C5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -5865,7 +5927,7 @@
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="58"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -5882,7 +5944,7 @@
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="58"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -5899,7 +5961,7 @@
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="58"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -5916,7 +5978,7 @@
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="55"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -5937,7 +5999,7 @@
       <c r="C10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -5949,7 +6011,7 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="55"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -5961,7 +6023,7 @@
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="55"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -5973,7 +6035,7 @@
       <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="56"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -5985,54 +6047,54 @@
       <c r="N13" s="14"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
     </row>
     <row r="17" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
     </row>
     <row r="18" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6073,31 +6135,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="46" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="E1" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -6109,30 +6171,30 @@
       <c r="C2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="65" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="50" t="s">
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="51"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="54"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -6141,7 +6203,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -6204,7 +6266,7 @@
       <c r="C4" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -6232,7 +6294,7 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -6260,7 +6322,7 @@
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="6"/>
       <c r="G6" s="8"/>
       <c r="H6" s="30"/>
@@ -6286,7 +6348,7 @@
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="6"/>
       <c r="G7" s="8"/>
       <c r="H7" s="30"/>
@@ -6312,7 +6374,7 @@
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
       <c r="H8" s="30"/>
@@ -6338,7 +6400,7 @@
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="55"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="13"/>
       <c r="G9" s="8"/>
       <c r="H9" s="30"/>
@@ -6364,7 +6426,7 @@
       <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="30"/>
@@ -6390,7 +6452,7 @@
       <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="55"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="13"/>
       <c r="G11" s="8"/>
       <c r="H11" s="30"/>
@@ -6416,7 +6478,7 @@
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="55"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="13"/>
       <c r="G12" s="8"/>
       <c r="H12" s="30"/>
@@ -6442,7 +6504,7 @@
       <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="56"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="25"/>
       <c r="G13" s="8"/>
       <c r="H13" s="30"/>
@@ -6542,19 +6604,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="E1" s="61" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="E1" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -6566,10 +6628,10 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="51"/>
+      <c r="F2" s="54"/>
       <c r="G2" s="27"/>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
@@ -6582,7 +6644,7 @@
       <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -6606,7 +6668,7 @@
       <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -6622,7 +6684,7 @@
       <c r="B5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -6638,7 +6700,7 @@
       <c r="B6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="58"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -6654,21 +6716,21 @@
       <c r="C7" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="58"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E8" s="55"/>
+      <c r="E8" s="58"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="55"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="13"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -6676,7 +6738,7 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="55"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -6684,7 +6746,7 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="55"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="13"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -6692,7 +6754,7 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="55"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="13"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -6700,7 +6762,7 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="56"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="25"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>

--- a/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
+++ b/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
@@ -11,7 +11,7 @@
     <sheet name="供应商资料" sheetId="2" r:id="rId2"/>
     <sheet name="原料类别,资料" sheetId="3" r:id="rId3"/>
     <sheet name="菜品配料设置" sheetId="4" r:id="rId4"/>
-    <sheet name="入库管理" sheetId="7" r:id="rId5"/>
+    <sheet name="出入库管理" sheetId="7" r:id="rId5"/>
     <sheet name="库存盘点" sheetId="10" r:id="rId6"/>
     <sheet name="进销存明细" sheetId="12" r:id="rId7"/>
     <sheet name="进销存汇总" sheetId="15" r:id="rId8"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="256">
   <si>
     <t>级别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1037,10 +1037,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>货单类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据生成时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1049,12 +1045,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>说明:
+    <t>货单大型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货单小类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">说明:
 一.出入库单需要审核之后才能入库更新数据.
 二.出入库日期必须是当前库存会计月份内,此月份由系统管理.
 三.出入库单类型包括:商品入库,商品调拨,商品报溢,原料入库,原料调拨,原料报溢.
 四.出入库单明细信息,入库单号对应入库单基本信息数据编号,一条基础信息对应多条明细信息.
-五.新生的单据状态为未审核,审核通过后的单方可冲红,冲红即取消该单据对库存资料修改.</t>
+五.新生的单据状态为未审核,审核通过后的单方可冲红,冲红即取消该单据对库存资料修改.
+六.货单分两大类:1.入库 2.出库,小类分六类:1.商品出/入库(采购/退货) 2.商品出/入库调拨 3.商品报损/报溢 4.原料出/入库(采购/退货) 2.原料出/入库调拨 3.原料报损/报溢 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1294,7 +1299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1439,6 +1444,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3012,23 +3020,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="E1" s="64" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="E1" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3040,22 +3048,22 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="51" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -3064,7 +3072,7 @@
       <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -3100,7 +3108,7 @@
       <c r="B4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -3120,7 +3128,7 @@
       <c r="B5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -3143,7 +3151,7 @@
       <c r="C6" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="58"/>
+      <c r="E6" s="59"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -3163,7 +3171,7 @@
       <c r="C7" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="59"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -3183,7 +3191,7 @@
       <c r="C8" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="58"/>
+      <c r="E8" s="59"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -3203,7 +3211,7 @@
       <c r="C9" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="58"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="13"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -3224,7 +3232,7 @@
       <c r="C10" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="58"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -3236,7 +3244,7 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="58"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="13"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -3248,7 +3256,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="58"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="13"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -3260,7 +3268,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="59"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="25"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -3309,23 +3317,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="E1" s="64" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="E1" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3337,10 +3345,10 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="54"/>
       <c r="G2" s="31"/>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
@@ -3353,7 +3361,7 @@
       <c r="B3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -3377,7 +3385,7 @@
       <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -3393,7 +3401,7 @@
       <c r="B5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -3409,7 +3417,7 @@
       <c r="B6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="58"/>
+      <c r="E6" s="59"/>
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
@@ -3425,7 +3433,7 @@
       <c r="C7" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="59"/>
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
@@ -3438,21 +3446,21 @@
       <c r="B8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="58"/>
+      <c r="E8" s="59"/>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="58"/>
+      <c r="E9" s="59"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="58"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="13"/>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
@@ -3460,7 +3468,7 @@
       <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="58"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="13"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
@@ -3468,7 +3476,7 @@
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="58"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="13"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
@@ -3476,7 +3484,7 @@
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="58"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="13"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
@@ -3484,7 +3492,7 @@
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="59"/>
+      <c r="E14" s="60"/>
       <c r="F14" s="25"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
@@ -3492,38 +3500,38 @@
       <c r="J14" s="35"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
     </row>
     <row r="17" spans="5:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="5:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="5:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3564,19 +3572,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="E1" s="49" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="E1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3813,24 +3821,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="E1" s="49" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="E1" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3842,23 +3850,23 @@
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="51" t="s">
+      <c r="F2" s="57"/>
+      <c r="G2" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -3867,7 +3875,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="16" t="s">
         <v>159</v>
       </c>
@@ -3906,7 +3914,7 @@
       <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="17"/>
       <c r="G4" s="14"/>
       <c r="H4" s="40"/>
@@ -3925,7 +3933,7 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="17"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3947,7 +3955,7 @@
       <c r="C6" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="E6" s="58"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="17"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -3961,7 +3969,7 @@
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="13"/>
-      <c r="E7" s="58"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="17"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -3974,13 +3982,13 @@
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="58"/>
+      <c r="E8" s="59"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -4002,7 +4010,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="58"/>
+      <c r="E9" s="59"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4021,7 +4029,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="58"/>
+      <c r="E10" s="59"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -4039,7 +4047,7 @@
       <c r="B11" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="58"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="43"/>
       <c r="G11" s="14"/>
       <c r="H11" s="40"/>
@@ -4058,7 +4066,7 @@
       <c r="B12" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="58"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="43"/>
       <c r="G12" s="14"/>
       <c r="H12" s="40"/>
@@ -4077,7 +4085,7 @@
       <c r="B13" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="58"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="43"/>
       <c r="G13" s="14"/>
       <c r="H13" s="40"/>
@@ -4096,7 +4104,7 @@
       <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="58"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="15"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -4115,7 +4123,7 @@
       <c r="B15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="58"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="15"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -4137,7 +4145,7 @@
       <c r="C16" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E16" s="58"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="15"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -4156,7 +4164,7 @@
       <c r="B17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="58"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="15"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -4175,7 +4183,7 @@
       <c r="B18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="59"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="18"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -4188,110 +4196,110 @@
       <c r="O18" s="8"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4332,24 +4340,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="E1" s="49" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="E1" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -4361,23 +4369,23 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="60" t="s">
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="60" t="s">
+      <c r="H2" s="63"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="60" t="s">
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="61"/>
+      <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -4386,7 +4394,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="16" t="s">
         <v>55</v>
       </c>
@@ -4425,7 +4433,7 @@
       <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="17" t="s">
         <v>56</v>
       </c>
@@ -4447,7 +4455,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="21"/>
-      <c r="E5" s="58"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="17" t="s">
         <v>57</v>
       </c>
@@ -4468,7 +4476,7 @@
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="58"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="6"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -4487,7 +4495,7 @@
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="59"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4499,7 +4507,7 @@
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E8" s="58"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -4512,7 +4520,7 @@
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="58"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="6"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -4525,7 +4533,7 @@
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="58"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="15"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -4538,7 +4546,7 @@
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="58"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="15"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -4551,7 +4559,7 @@
       <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="58"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="15"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -4564,7 +4572,7 @@
       <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="58"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="15"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -4577,7 +4585,7 @@
       <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="59"/>
+      <c r="E14" s="60"/>
       <c r="F14" s="18"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -4590,58 +4598,58 @@
       <c r="O14" s="8"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
     </row>
     <row r="18" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
     </row>
     <row r="20" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E20" s="19"/>
@@ -4681,10 +4689,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:N27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4696,23 +4704,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="E1" s="49" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="E1" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -4724,16 +4732,16 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="63"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="64"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -4991,7 +4999,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -5006,13 +5014,13 @@
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B16" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -5027,14 +5035,12 @@
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>246</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="20"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -5048,12 +5054,14 @@
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="20"/>
+        <v>245</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>246</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -5066,180 +5074,199 @@
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="45"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="A19" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="49" t="s">
+      <c r="B20" s="45"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="E20" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-    </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="E21" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+    </row>
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-    </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+    </row>
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="B23" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-    </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
+      <c r="B24" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>226</v>
+        <v>138</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="48"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
     </row>
     <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="48"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+    </row>
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="48"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-    </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="41"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
+      <c r="B27" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
     </row>
     <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="41"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+    </row>
+    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E20:N27"/>
+    <mergeCell ref="E21:N28"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B1048576 B3:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 B3:B20">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5265,22 +5292,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="E1" s="64" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="E1" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -5514,19 +5541,19 @@
       <c r="M13" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="E15" s="49" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="E15" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
@@ -5647,116 +5674,116 @@
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="41"/>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
     </row>
     <row r="33" spans="5:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5794,22 +5821,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="E1" s="64" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="E1" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -5821,22 +5848,22 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="51" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -5845,7 +5872,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -5884,7 +5911,7 @@
       <c r="C4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -5907,7 +5934,7 @@
       <c r="C5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -5927,7 +5954,7 @@
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="58"/>
+      <c r="E6" s="59"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -5944,7 +5971,7 @@
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="59"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -5961,7 +5988,7 @@
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="58"/>
+      <c r="E8" s="59"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -5978,7 +6005,7 @@
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="58"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -5999,7 +6026,7 @@
       <c r="C10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="58"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -6011,7 +6038,7 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="58"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -6023,7 +6050,7 @@
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="58"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -6035,7 +6062,7 @@
       <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="59"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -6047,54 +6074,54 @@
       <c r="N13" s="14"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
     </row>
     <row r="17" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
     </row>
     <row r="18" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6135,31 +6162,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="E1" s="49" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="E1" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -6171,30 +6198,30 @@
       <c r="C2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="68" t="s">
+      <c r="F2" s="57"/>
+      <c r="G2" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="53" t="s">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="55"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -6203,7 +6230,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -6266,7 +6293,7 @@
       <c r="C4" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -6294,7 +6321,7 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -6322,7 +6349,7 @@
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="58"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="6"/>
       <c r="G6" s="8"/>
       <c r="H6" s="30"/>
@@ -6348,7 +6375,7 @@
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="6"/>
       <c r="G7" s="8"/>
       <c r="H7" s="30"/>
@@ -6374,7 +6401,7 @@
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="58"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
       <c r="H8" s="30"/>
@@ -6400,7 +6427,7 @@
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="58"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="13"/>
       <c r="G9" s="8"/>
       <c r="H9" s="30"/>
@@ -6426,7 +6453,7 @@
       <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="58"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="30"/>
@@ -6452,7 +6479,7 @@
       <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="58"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="13"/>
       <c r="G11" s="8"/>
       <c r="H11" s="30"/>
@@ -6478,7 +6505,7 @@
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="58"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="13"/>
       <c r="G12" s="8"/>
       <c r="H12" s="30"/>
@@ -6504,7 +6531,7 @@
       <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="59"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="25"/>
       <c r="G13" s="8"/>
       <c r="H13" s="30"/>
@@ -6604,19 +6631,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="E1" s="64" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="E1" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -6628,10 +6655,10 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="54"/>
+      <c r="F2" s="55"/>
       <c r="G2" s="27"/>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
@@ -6644,7 +6671,7 @@
       <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -6668,7 +6695,7 @@
       <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -6684,7 +6711,7 @@
       <c r="B5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -6700,7 +6727,7 @@
       <c r="B6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="58"/>
+      <c r="E6" s="59"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -6716,21 +6743,21 @@
       <c r="C7" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="59"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E8" s="58"/>
+      <c r="E8" s="59"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="58"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="13"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -6738,7 +6765,7 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="58"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -6746,7 +6773,7 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="58"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="13"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -6754,7 +6781,7 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="58"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="13"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -6762,7 +6789,7 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="59"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="25"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>

--- a/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
+++ b/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="255">
   <si>
     <t>级别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -896,10 +896,6 @@
   </si>
   <si>
     <t>原始货单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3380,7 +3376,7 @@
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
@@ -3641,7 +3637,7 @@
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
@@ -3889,10 +3885,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>236</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>237</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>16</v>
@@ -3909,7 +3905,7 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
@@ -3947,13 +3943,13 @@
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="E6" s="59"/>
       <c r="F6" s="17"/>
@@ -4042,7 +4038,7 @@
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11" s="41" t="s">
         <v>5</v>
@@ -4061,7 +4057,7 @@
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>5</v>
@@ -4080,7 +4076,7 @@
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>5</v>
@@ -4118,7 +4114,7 @@
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>5</v>
@@ -4143,7 +4139,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E16" s="59"/>
       <c r="F16" s="15"/>
@@ -4197,7 +4193,7 @@
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E20" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F20" s="51"/>
       <c r="G20" s="51"/>
@@ -4428,7 +4424,7 @@
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
@@ -4689,10 +4685,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:N28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4784,7 +4780,7 @@
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
@@ -4803,7 +4799,7 @@
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>5</v>
@@ -4879,7 +4875,7 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>5</v>
@@ -4917,7 +4913,7 @@
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>5</v>
@@ -4934,9 +4930,9 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>5</v>
@@ -4953,11 +4949,11 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="20"/>
@@ -4974,12 +4970,14 @@
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="20"/>
+        <v>249</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -4993,7 +4991,7 @@
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B15" s="46" t="s">
         <v>5</v>
@@ -5016,12 +5014,10 @@
       <c r="A16" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="B16" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="20"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -5035,12 +5031,14 @@
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="20"/>
+        <v>244</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>245</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -5054,14 +5052,12 @@
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>246</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="20"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -5074,46 +5070,48 @@
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="B19" s="45"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="45"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
+      <c r="A20" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="E20" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="E21" s="51" t="s">
-        <v>255</v>
-      </c>
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="51"/>
       <c r="F21" s="51"/>
       <c r="G21" s="51"/>
       <c r="H21" s="51"/>
@@ -5125,15 +5123,13 @@
       <c r="N21" s="51"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A22" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="47"/>
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
@@ -5147,9 +5143,9 @@
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="47"/>
@@ -5165,13 +5161,13 @@
       <c r="N23" s="51"/>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="47"/>
+      <c r="A24" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="48"/>
       <c r="E24" s="51"/>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
@@ -5185,7 +5181,7 @@
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>5</v>
@@ -5222,13 +5218,7 @@
       <c r="N26" s="51"/>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="48"/>
+      <c r="B27" s="41"/>
       <c r="E27" s="51"/>
       <c r="F27" s="51"/>
       <c r="G27" s="51"/>
@@ -5242,31 +5232,18 @@
     </row>
     <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="41"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-    </row>
-    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E21:N28"/>
+    <mergeCell ref="E20:N27"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 B3:B20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B1048576 B3:B19">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5349,7 +5326,7 @@
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>5</v>
@@ -5417,7 +5394,7 @@
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>5</v>
@@ -5434,13 +5411,13 @@
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -5460,7 +5437,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -5474,7 +5451,7 @@
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>5</v>
@@ -5589,7 +5566,7 @@
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>5</v>
@@ -5604,7 +5581,7 @@
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>5</v>
@@ -5675,7 +5652,7 @@
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="41"/>
       <c r="E24" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F24" s="66"/>
       <c r="G24" s="66"/>

--- a/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
+++ b/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="257">
   <si>
     <t>级别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -753,10 +753,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>入库类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经办人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -972,17 +968,6 @@
   </si>
   <si>
     <t>品项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">说明:
-一.盘点流程
-    1.新增一个盘点任务.此时将锁定现有库存,期间可以继续进行出入库操作,但入库日期只能大于盘点开始日期,待盘点任务完全后,先将原有库存解锁;
-    2.盘点货品实际库存量;
-    3.填写(或修改)盘点单,录入盘点后实际货品信息;
-    4.审核通过后将自动生成相关信息,不能再修改删除, 未审核可取消盘点.
-二.货品类型固定分为1(商品)2(原料),当类型为商品时,当次盘点任务只能盘点商品库存信息; 当类型为原料时,当次盘点任务只能盘点原料信息,如果指定某个原料类别则只能盘点该类别下的原料.
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1049,13 +1034,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>货品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.商品 2.原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">说明:
+一.盘点流程
+    1.新增一个盘点任务.此时将锁定现有库存,期间可以继续进行出入库操作,但入库日期只能大于盘点开始日期,待盘点任务完全后,先将原有库存解锁;
+    2.盘点货品实际库存量;
+    3.填写(或修改)盘点单,录入盘点后实际货品信息;
+    4.审核通过后将自动生成相关信息,不能再修改删除, 未审核可取消盘点.
+二.货品类型固定分为1(商品)2(原料),当类型为商品时,当次盘点任务只能盘点商品库存信息; 当类型为原料时,当次盘点任务只能盘点原料信息,如果指定某个原料类别则只能盘点该类别下的原料.
+三.盘点任务审核后生成对应出入库单,并设置为已审核状态,以更新库存信息.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货单类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明:
 一.出入库单需要审核之后才能入库更新数据.
-二.出入库日期必须是当前库存会计月份内,此月份由系统管理.
+二.出入库日期必须是当前库存会计月份内,此月份由系统管理, 且大于最后一次盘点日期.
 三.出入库单类型包括:商品入库,商品调拨,商品报溢,原料入库,原料调拨,原料报溢.
 四.出入库单明细信息,入库单号对应入库单基本信息数据编号,一条基础信息对应多条明细信息.
 五.新生的单据状态为未审核,审核通过后的单方可冲红,冲红即取消该单据对库存资料修改.
-六.货单分两大类:1.入库 2.出库,小类分六类:1.商品出/入库(采购/退货) 2.商品出/入库调拨 3.商品报损/报溢 4.原料出/入库(采购/退货) 2.原料出/入库调拨 3.原料报损/报溢 </t>
+六.货单大类:1.入库 2.出库.
+七.货品大类:1.商品 3.原料.
+八.货单小类:1.采购 2.入库调拨 3.报溢 4.退货 5.出库调拨 6.报损 7.盘盈 8.盘亏 9.消耗.其 中,123为入库功能使用, 456为出库功能使用, 78为盘点功能使用, 9为账单使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1295,7 +1306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1440,6 +1451,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3016,23 +3030,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="E1" s="65" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="E1" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3044,22 +3058,22 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="52" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -3068,7 +3082,7 @@
       <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -3104,7 +3118,7 @@
       <c r="B4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="59"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -3124,7 +3138,7 @@
       <c r="B5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -3147,7 +3161,7 @@
       <c r="C6" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="59"/>
+      <c r="E6" s="60"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -3167,7 +3181,7 @@
       <c r="C7" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="60"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -3187,7 +3201,7 @@
       <c r="C8" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="59"/>
+      <c r="E8" s="60"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -3207,7 +3221,7 @@
       <c r="C9" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="59"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="13"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -3228,7 +3242,7 @@
       <c r="C10" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="59"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -3240,7 +3254,7 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="59"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="13"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -3252,7 +3266,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="59"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="13"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -3264,7 +3278,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="60"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="25"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -3313,23 +3327,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="E1" s="65" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="E1" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3341,10 +3355,10 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="54"/>
+      <c r="F2" s="55"/>
       <c r="G2" s="31"/>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
@@ -3357,7 +3371,7 @@
       <c r="B3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -3376,12 +3390,12 @@
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="59"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -3397,7 +3411,7 @@
       <c r="B5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -3413,7 +3427,7 @@
       <c r="B6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="59"/>
+      <c r="E6" s="60"/>
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
@@ -3429,7 +3443,7 @@
       <c r="C7" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="60"/>
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
@@ -3442,21 +3456,21 @@
       <c r="B8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="59"/>
+      <c r="E8" s="60"/>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="59"/>
+      <c r="E9" s="60"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="59"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="13"/>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
@@ -3464,7 +3478,7 @@
       <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="59"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="13"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
@@ -3472,7 +3486,7 @@
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="59"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="13"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
@@ -3480,7 +3494,7 @@
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="59"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="13"/>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
@@ -3488,7 +3502,7 @@
       <c r="J13" s="35"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="60"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="25"/>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
@@ -3496,38 +3510,38 @@
       <c r="J14" s="35"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
     </row>
     <row r="17" spans="5:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="5:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="5:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3568,19 +3582,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="E1" s="50" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="E1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3637,7 +3651,7 @@
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
@@ -3817,24 +3831,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="E1" s="50" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="E1" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -3846,23 +3860,23 @@
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="52" t="s">
+      <c r="F2" s="58"/>
+      <c r="G2" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="54" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -3871,7 +3885,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="16" t="s">
         <v>159</v>
       </c>
@@ -3885,10 +3899,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>235</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>236</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>16</v>
@@ -3905,12 +3919,12 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="59"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="17"/>
       <c r="G4" s="14"/>
       <c r="H4" s="40"/>
@@ -3929,7 +3943,7 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="17"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3943,15 +3957,15 @@
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="59"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="17"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -3965,7 +3979,7 @@
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="13"/>
-      <c r="E7" s="59"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="17"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -3978,13 +3992,13 @@
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="59"/>
+      <c r="E8" s="60"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -4006,7 +4020,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="59"/>
+      <c r="E9" s="60"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -4025,7 +4039,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="59"/>
+      <c r="E10" s="60"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -4038,12 +4052,12 @@
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B11" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="59"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="43"/>
       <c r="G11" s="14"/>
       <c r="H11" s="40"/>
@@ -4057,12 +4071,12 @@
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="59"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="43"/>
       <c r="G12" s="14"/>
       <c r="H12" s="40"/>
@@ -4076,12 +4090,12 @@
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="59"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="43"/>
       <c r="G13" s="14"/>
       <c r="H13" s="40"/>
@@ -4100,7 +4114,7 @@
       <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="59"/>
+      <c r="E14" s="60"/>
       <c r="F14" s="15"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -4114,12 +4128,12 @@
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="59"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="15"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -4139,9 +4153,9 @@
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="59"/>
+        <v>233</v>
+      </c>
+      <c r="E16" s="60"/>
       <c r="F16" s="15"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -4160,7 +4174,7 @@
       <c r="B17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="59"/>
+      <c r="E17" s="60"/>
       <c r="F17" s="15"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -4179,7 +4193,7 @@
       <c r="B18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="60"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="18"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -4192,110 +4206,110 @@
       <c r="O18" s="8"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E20" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
+      <c r="E20" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4336,24 +4350,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="E1" s="50" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="E1" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -4365,23 +4379,23 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="61" t="s">
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="61" t="s">
+      <c r="H2" s="64"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="61" t="s">
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="62"/>
+      <c r="O2" s="63"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -4390,7 +4404,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="16" t="s">
         <v>55</v>
       </c>
@@ -4424,12 +4438,12 @@
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="59"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="17" t="s">
         <v>56</v>
       </c>
@@ -4445,13 +4459,13 @@
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="21"/>
-      <c r="E5" s="59"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="17" t="s">
         <v>57</v>
       </c>
@@ -4467,12 +4481,12 @@
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="59"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="6"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -4486,12 +4500,12 @@
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="60"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -4503,7 +4517,7 @@
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E8" s="59"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -4516,7 +4530,7 @@
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="59"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="6"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -4529,7 +4543,7 @@
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="59"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="15"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -4542,7 +4556,7 @@
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="59"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="15"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -4555,7 +4569,7 @@
       <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="59"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="15"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -4568,7 +4582,7 @@
       <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="59"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="15"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -4581,7 +4595,7 @@
       <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="60"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="18"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -4594,58 +4608,58 @@
       <c r="O14" s="8"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
     </row>
     <row r="17" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
     </row>
     <row r="18" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
     </row>
     <row r="19" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
     </row>
     <row r="20" spans="5:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E20" s="19"/>
@@ -4685,10 +4699,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4700,23 +4714,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="E1" s="50" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="E1" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -4728,16 +4742,16 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="64"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="65"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -4754,7 +4768,7 @@
         <v>177</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>180</v>
@@ -4769,18 +4783,18 @@
         <v>179</v>
       </c>
       <c r="L3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
@@ -4799,7 +4813,7 @@
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>5</v>
@@ -4818,7 +4832,7 @@
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>5</v>
@@ -4875,7 +4889,7 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>5</v>
@@ -4970,13 +4984,13 @@
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B14" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -4991,13 +5005,13 @@
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B15" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -5012,12 +5026,14 @@
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="B16" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="20"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -5031,14 +5047,12 @@
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>245</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="20"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -5052,12 +5066,14 @@
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="20"/>
+        <v>242</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>243</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -5070,180 +5086,199 @@
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="45"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="A19" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="E20" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
+      <c r="B20" s="45"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="E21" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+    </row>
+    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-    </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="B23" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="47"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
+      <c r="A24" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="48"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
     </row>
     <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B26" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="48"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="41"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
+      <c r="A27" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
     </row>
     <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="41"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+    </row>
+    <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E20:N27"/>
+    <mergeCell ref="E21:N28"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B1048576 B3:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576 B3:B20">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5256,8 +5291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5269,22 +5304,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="E1" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
+      <c r="A1" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="E1" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -5297,36 +5332,36 @@
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>5</v>
@@ -5343,7 +5378,7 @@
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>5</v>
@@ -5360,7 +5395,7 @@
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>5</v>
@@ -5377,7 +5412,7 @@
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>5</v>
@@ -5394,7 +5429,7 @@
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>5</v>
@@ -5411,13 +5446,13 @@
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -5431,13 +5466,13 @@
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -5451,7 +5486,7 @@
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>5</v>
@@ -5468,7 +5503,7 @@
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>5</v>
@@ -5485,7 +5520,7 @@
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>9</v>
@@ -5502,7 +5537,7 @@
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>5</v>
@@ -5518,19 +5553,19 @@
       <c r="M13" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="E15" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
+      <c r="A15" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="E15" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
@@ -5546,27 +5581,27 @@
         <v>8</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="G16" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>5</v>
@@ -5581,7 +5616,7 @@
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>5</v>
@@ -5595,7 +5630,7 @@
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>5</v>
@@ -5609,7 +5644,7 @@
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>5</v>
@@ -5623,7 +5658,7 @@
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>5</v>
@@ -5637,7 +5672,7 @@
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" s="37" t="s">
         <v>5</v>
@@ -5651,116 +5686,116 @@
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="41"/>
-      <c r="E24" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
+      <c r="E24" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
     </row>
     <row r="33" spans="5:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5798,22 +5833,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="E1" s="65" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="E1" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -5825,22 +5860,22 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="52" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54" t="s">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -5849,7 +5884,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -5888,7 +5923,7 @@
       <c r="C4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="59"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -5911,7 +5946,7 @@
       <c r="C5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -5931,7 +5966,7 @@
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="59"/>
+      <c r="E6" s="60"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -5948,7 +5983,7 @@
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="60"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -5965,7 +6000,7 @@
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="59"/>
+      <c r="E8" s="60"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -5982,7 +6017,7 @@
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="59"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -6003,7 +6038,7 @@
       <c r="C10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="59"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="13"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -6015,7 +6050,7 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="59"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -6027,7 +6062,7 @@
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="59"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -6039,7 +6074,7 @@
       <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="60"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="25"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -6051,54 +6086,54 @@
       <c r="N13" s="14"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
     </row>
     <row r="17" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
     </row>
     <row r="18" spans="5:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6139,31 +6174,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="E1" s="50" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="E1" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -6175,30 +6210,30 @@
       <c r="C2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="69" t="s">
+      <c r="F2" s="58"/>
+      <c r="G2" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="54" t="s">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="56"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
@@ -6207,7 +6242,7 @@
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -6270,7 +6305,7 @@
       <c r="C4" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="59"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -6298,7 +6333,7 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -6326,7 +6361,7 @@
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="59"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="6"/>
       <c r="G6" s="8"/>
       <c r="H6" s="30"/>
@@ -6352,7 +6387,7 @@
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="6"/>
       <c r="G7" s="8"/>
       <c r="H7" s="30"/>
@@ -6378,7 +6413,7 @@
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="59"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
       <c r="H8" s="30"/>
@@ -6404,7 +6439,7 @@
       <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="59"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="13"/>
       <c r="G9" s="8"/>
       <c r="H9" s="30"/>
@@ -6430,7 +6465,7 @@
       <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="59"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="30"/>
@@ -6456,7 +6491,7 @@
       <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="59"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="13"/>
       <c r="G11" s="8"/>
       <c r="H11" s="30"/>
@@ -6482,7 +6517,7 @@
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="59"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="13"/>
       <c r="G12" s="8"/>
       <c r="H12" s="30"/>
@@ -6508,7 +6543,7 @@
       <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="60"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="25"/>
       <c r="G13" s="8"/>
       <c r="H13" s="30"/>
@@ -6608,19 +6643,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="E1" s="65" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="E1" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -6632,10 +6667,10 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="55"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="27"/>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
@@ -6648,7 +6683,7 @@
       <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="23" t="s">
         <v>87</v>
       </c>
@@ -6672,7 +6707,7 @@
       <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="59"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="24" t="s">
         <v>88</v>
       </c>
@@ -6688,7 +6723,7 @@
       <c r="B5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="24" t="s">
         <v>89</v>
       </c>
@@ -6704,7 +6739,7 @@
       <c r="B6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="59"/>
+      <c r="E6" s="60"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -6720,21 +6755,21 @@
       <c r="C7" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="60"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E8" s="59"/>
+      <c r="E8" s="60"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="59"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="13"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -6742,7 +6777,7 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E10" s="59"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -6750,7 +6785,7 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="59"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="13"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -6758,7 +6793,7 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E12" s="59"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="13"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -6766,7 +6801,7 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="60"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="25"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>

--- a/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
+++ b/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
@@ -713,10 +713,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经办人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1067,6 +1063,10 @@
 六.货单大类:1.入库 2.出库.
 七.货品大类:1.商品 3.原料.
 八.货单小类:1.采购 2.入库调拨 3.报溢 4.退货 5.出库调拨 6.报损 7.盘盈 8.盘亏 9.消耗.其 中,123为入库功能使用, 456为出库功能使用, 78为盘点功能使用, 9为账单使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制单人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
@@ -3899,10 +3899,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>234</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>235</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>16</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
@@ -3957,13 +3957,13 @@
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="E6" s="60"/>
       <c r="F6" s="17"/>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" s="41" t="s">
         <v>5</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>5</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>5</v>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>5</v>
@@ -4153,7 +4153,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" s="60"/>
       <c r="F16" s="15"/>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E20" s="52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>5</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>5</v>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>5</v>
@@ -4701,7 +4701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E21" sqref="E21:N28"/>
     </sheetView>
   </sheetViews>
@@ -4720,7 +4720,7 @@
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
       <c r="E1" s="51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F1" s="51"/>
       <c r="G1" s="51"/>
@@ -4762,39 +4762,39 @@
       </c>
       <c r="C3" s="20"/>
       <c r="E3" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="K3" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>5</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>5</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>5</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>5</v>
@@ -4908,7 +4908,7 @@
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>5</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>5</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="12" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>5</v>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>5</v>
@@ -4984,13 +4984,13 @@
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>247</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>248</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -5005,13 +5005,13 @@
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B15" s="46" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -5026,13 +5026,13 @@
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>252</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>253</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B17" s="49" t="s">
         <v>5</v>
@@ -5066,13 +5066,13 @@
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>242</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>243</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>9</v>
@@ -5119,12 +5119,12 @@
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="E21" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" s="41" t="s">
         <v>5</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B24" s="45" t="s">
         <v>5</v>
@@ -5216,7 +5216,7 @@
     </row>
     <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="41" t="s">
         <v>5</v>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" s="41" t="s">
         <v>5</v>
@@ -5305,12 +5305,12 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
       <c r="E1" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -5332,36 +5332,36 @@
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>5</v>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>5</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>5</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>5</v>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>5</v>
@@ -5446,13 +5446,13 @@
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -5466,13 +5466,13 @@
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>5</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>5</v>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>9</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>5</v>
@@ -5554,12 +5554,12 @@
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="E15" s="51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
@@ -5581,27 +5581,27 @@
         <v>8</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G16" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>5</v>
@@ -5616,7 +5616,7 @@
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>5</v>
@@ -5630,7 +5630,7 @@
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>5</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>5</v>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>5</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" s="37" t="s">
         <v>5</v>
@@ -5687,7 +5687,7 @@
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="41"/>
       <c r="E24" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F24" s="67"/>
       <c r="G24" s="67"/>

--- a/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
+++ b/doc/Digi-e大会员中心需求/Digi-e大会员中心-新库存需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="841" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="841" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="库存模块功能导航" sheetId="1" r:id="rId1"/>
@@ -1038,18 +1038,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">说明:
-一.盘点流程
-    1.新增一个盘点任务.此时将锁定现有库存,期间可以继续进行出入库操作,但入库日期只能大于盘点开始日期,待盘点任务完全后,先将原有库存解锁;
-    2.盘点货品实际库存量;
-    3.填写(或修改)盘点单,录入盘点后实际货品信息;
-    4.审核通过后将自动生成相关信息,不能再修改删除, 未审核可取消盘点.
-二.货品类型固定分为1(商品)2(原料),当类型为商品时,当次盘点任务只能盘点商品库存信息; 当类型为原料时,当次盘点任务只能盘点原料信息,如果指定某个原料类别则只能盘点该类别下的原料.
-三.盘点任务审核后生成对应出入库单,并设置为已审核状态,以更新库存信息.
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>货单类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1067,6 +1055,21 @@
   </si>
   <si>
     <t>制单人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明:
+一.盘点流程
+    1.新增一个盘点任务.此时将锁定现有库存,期间可以继续进行出入库操作,但入库日期只能大于盘点开始日期,待盘点任务完全后,先将原有库存解锁;
+    2.盘点货品实际库存量;
+    3.填写(或修改)盘点单,录入盘点后实际货品信息;
+    4.审核通过后将自动生成相关信息,不能再修改删除, 未审核可取消盘点.
+二.货品类型固定分为1(商品)2(原料),当类型为商品时,当次盘点任务只能盘点商品库存信息; 当类型为原料时,当次盘点任务只能盘点原料信息,如果指定某个原料类别则只能盘点该类别下的原料.
+三.盘点任务审核后生成对应出入库单,并设置为已审核状态,以更新库存信息.
+四.新增任务时,不允许存在重复部门.
+五.审核时,需检查是否用盘漏货品,如果有,需提示用户决定处理方式,
+    1.延续旧库存量信息
+    2.充值库存量信息为0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4701,7 +4704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21:N28"/>
     </sheetView>
   </sheetViews>
@@ -4768,7 +4771,7 @@
         <v>176</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>179</v>
@@ -4965,7 +4968,7 @@
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>5</v>
@@ -5124,7 +5127,7 @@
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="E21" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
@@ -5289,10 +5292,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:M33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5687,115 +5690,137 @@
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="41"/>
       <c r="E24" s="52" t="s">
-        <v>253</v>
-      </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
+        <v>256</v>
+      </c>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
     </row>
     <row r="33" spans="5:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+    </row>
+    <row r="34" spans="5:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+    </row>
+    <row r="35" spans="5:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5803,7 +5828,7 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E24:M33"/>
+    <mergeCell ref="E24:M35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
